--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.900000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.900000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.23750405406821e-23</v>
+        <v>2.197261150112293e-23</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.226855560178026e-23</v>
+        <v>2.244233492500999e-23</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.237849302729502e-23</v>
+        <v>2.299543011086491e-23</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.268821192188994e-23</v>
+        <v>2.362677326801002e-23</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.31810713902289e-23</v>
+        <v>2.433124060576977e-23</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.384043053697578e-23</v>
+        <v>2.510370833346795e-23</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.464964846679562e-23</v>
+        <v>2.593905266042948e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.559208428435016e-23</v>
+        <v>2.683214979597594e-23</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.665109709430422e-23</v>
+        <v>2.777787594943217e-23</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.781004600132327e-23</v>
+        <v>2.877110733012328e-23</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.905229011006814e-23</v>
+        <v>2.980672014737045e-23</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>3.036118852520416e-23</v>
+        <v>3.087959061049875e-23</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>3.172010035139701e-23</v>
+        <v>3.19845949288334e-23</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>3.311238469330699e-23</v>
+        <v>3.311660931169531e-23</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>3.452140065559971e-23</v>
+        <v>3.427050996840966e-23</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.593050734293909e-23</v>
+        <v>3.544117310830026e-23</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.732306385999077e-23</v>
+        <v>3.662347494069244e-23</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.868242931141499e-23</v>
+        <v>3.781229167490688e-23</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.999242374420201e-23</v>
+        <v>3.900253403501606e-23</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>4.124613663535272e-23</v>
+        <v>4.018980682766216e-23</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>4.244524211747411e-23</v>
+        <v>4.137035766705761e-23</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>4.359173805770512e-23</v>
+        <v>4.254045840822959e-23</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>4.468762232318302e-23</v>
+        <v>4.369638090620374e-23</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>4.573489278104645e-23</v>
+        <v>4.483439701600718e-23</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>4.673554729842987e-23</v>
+        <v>4.595077859266254e-23</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>4.769158374247201e-23</v>
+        <v>4.704179749119695e-23</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>4.860499998031127e-23</v>
+        <v>4.810372556663741e-23</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>4.947779387908254e-23</v>
+        <v>4.913283467400678e-23</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>5.03119633059243e-23</v>
+        <v>5.012539666833209e-23</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>5.110950612797384e-23</v>
+        <v>5.107768340463898e-23</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>5.187242021236939e-23</v>
+        <v>5.198596673795422e-23</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>5.260270342624619e-23</v>
+        <v>5.284651852330105e-23</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>5.330235363674258e-23</v>
+        <v>5.365561061570635e-23</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>5.397336871099665e-23</v>
+        <v>5.440951487019669e-23</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>5.461712428093507e-23</v>
+        <v>5.510476423545533e-23</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>5.523083152036547e-23</v>
+        <v>5.573963909200101e-23</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>5.58099924199581e-23</v>
+        <v>5.631313700394113e-23</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>5.635010375919817e-23</v>
+        <v>5.682425772202468e-23</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>5.684666231757316e-23</v>
+        <v>5.727200099700299e-23</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>5.729516487456982e-23</v>
+        <v>5.765536657962652e-23</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>5.76911082096753e-23</v>
+        <v>5.797335422064616e-23</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>5.802998910237537e-23</v>
+        <v>5.822496367081157e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>5.830730433215721e-23</v>
+        <v>5.84091946808737e-23</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>5.851855067850786e-23</v>
+        <v>5.852504700158321e-23</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>5.865922492091343e-23</v>
+        <v>5.857152038369024e-23</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>5.872482383886099e-23</v>
+        <v>5.854761457794551e-23</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>5.871084421183725e-23</v>
+        <v>5.845232933509954e-23</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>5.861278281932875e-23</v>
+        <v>5.828466440590252e-23</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>5.842613644082247e-23</v>
+        <v>5.804361954110543e-23</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>5.814711118399525e-23</v>
+        <v>5.772867927177854e-23</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>5.778103226707113e-23</v>
+        <v>5.734556045612894e-23</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>5.733955124792313e-23</v>
+        <v>5.690430359972742e-23</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>5.683444694225835e-23</v>
+        <v>5.641503618071121e-23</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>5.627749816578359e-23</v>
+        <v>5.588788567721728e-23</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>5.568048373420781e-23</v>
+        <v>5.533297956738473e-23</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>5.50551824632379e-23</v>
+        <v>5.476044532935057e-23</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>5.441337316858134e-23</v>
+        <v>5.418041044125244e-23</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>5.376683466594484e-23</v>
+        <v>5.360300238122733e-23</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>5.312734577103762e-23</v>
+        <v>5.303834862741441e-23</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>5.250668529956637e-23</v>
+        <v>5.249657665795064e-23</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>5.191663206723787e-23</v>
+        <v>5.198781395097304e-23</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>5.13686328379826e-23</v>
+        <v>5.152187372089105e-23</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>5.086596805428389e-23</v>
+        <v>5.110084033137378e-23</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>5.040344658855047e-23</v>
+        <v>5.071878039892366e-23</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>4.997548418591176e-23</v>
+        <v>5.036938847263393e-23</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>4.957649659149872e-23</v>
+        <v>5.00463591015991e-23</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>4.920089955044067e-23</v>
+        <v>4.974338683491236e-23</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>4.884310880786711e-23</v>
+        <v>4.9454166221667e-23</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>4.849754010890882e-23</v>
+        <v>4.917239181095739e-23</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>4.815860919869525e-23</v>
+        <v>4.889175815187681e-23</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>4.782073182235585e-23</v>
+        <v>4.860595979351852e-23</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>4.747832372502142e-23</v>
+        <v>4.830869128497692e-23</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>4.712580065182141e-23</v>
+        <v>4.799364717534528e-23</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>4.675757834788573e-23</v>
+        <v>4.765452201371724e-23</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>4.636807255834372e-23</v>
+        <v>4.728501034918593e-23</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>4.595169902832634e-23</v>
+        <v>4.687880673084599e-23</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>4.550287350296298e-23</v>
+        <v>4.642960570779058e-23</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>4.501601172738291e-23</v>
+        <v>4.593110182911267e-23</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>4.448552944671726e-23</v>
+        <v>4.537698964390722e-23</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.390584240609534e-23</v>
+        <v>4.476096370126723e-23</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.327136635064706e-23</v>
+        <v>4.407671855028635e-23</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.257651702550137e-23</v>
+        <v>4.33179487400572e-23</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.181571017578997e-23</v>
+        <v>4.247834881967539e-23</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.098336154664192e-23</v>
+        <v>4.155161333823364e-23</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>4.007388688318586e-23</v>
+        <v>4.053143684482419e-23</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.908170193055409e-23</v>
+        <v>3.941151388854335e-23</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.800122243387536e-23</v>
+        <v>3.81855390184835e-23</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.683180744966908e-23</v>
+        <v>3.685376485904832e-23</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.559851207270941e-23</v>
+        <v>3.545053384626102e-23</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.433471458690153e-23</v>
+        <v>3.402123042762974e-23</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.3073797546364e-23</v>
+        <v>3.261124471576908e-23</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.184914350521541e-23</v>
+        <v>3.126596682329375e-23</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.069413501757917e-23</v>
+        <v>3.003078686282376e-23</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.964215463757378e-23</v>
+        <v>2.895109494697371e-23</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.872658491931831e-23</v>
+        <v>2.807228118835901e-23</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.798080841693534e-23</v>
+        <v>2.743973569959843e-23</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.743820768454375e-23</v>
+        <v>2.709884859330712e-23</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.713216527626366e-23</v>
+        <v>2.709500998210146e-23</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.709606374621538e-23</v>
+        <v>2.747360997859865e-23</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.736328564851921e-23</v>
+        <v>2.828003869541417e-23</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.419257630681259e-24</v>
+        <v>1.427860265502295e-24</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.828229587906248e-24</v>
+        <v>1.84449666663508e-24</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.740378614886897e-24</v>
+        <v>1.781757480831844e-24</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.354424513250754e-24</v>
+        <v>2.372039435816476e-24</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.938240760875632e-24</v>
+        <v>2.925242211591659e-24</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.992383839480779e-24</v>
+        <v>2.980536762334494e-24</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>4.855822753585123e-24</v>
+        <v>4.873888156924384e-24</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.276375502445391e-23</v>
+        <v>1.280968237598123e-23</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.567644036535031e-23</v>
+        <v>2.574625627607616e-23</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.167711577376644e-23</v>
+        <v>3.179499667990829e-23</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.319047924809626e-23</v>
+        <v>3.326131781961916e-23</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.311830481097185e-23</v>
+        <v>3.306125040969675e-23</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.180387120288813e-23</v>
+        <v>3.17206336753778e-23</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.997717984037354e-23</v>
+        <v>2.996712412990615e-23</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.854490735604018e-23</v>
+        <v>2.859518291383291e-23</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.759402388010646e-23</v>
+        <v>2.761238432028026e-23</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.708330943020407e-23</v>
+        <v>2.700392510169711e-23</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.738657510110453e-23</v>
+        <v>2.741093274824476e-23</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.659418166429392e-23</v>
+        <v>2.666161890058707e-23</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.573097228037081e-23</v>
+        <v>2.569619873566028e-23</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.586088706246745e-23</v>
+        <v>2.579721619514306e-23</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.554233318565803e-23</v>
+        <v>2.549161909357545e-23</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.491550544495915e-23</v>
+        <v>2.489054166125053e-23</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.431609714424013e-23</v>
+        <v>2.431121683542443e-23</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.369786651301344e-23</v>
+        <v>2.370540082765222e-23</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.297319574342742e-23</v>
+        <v>2.29852567885904e-23</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.205799958831567e-23</v>
+        <v>2.206675914486622e-23</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.090423638234443e-23</v>
+        <v>2.090476970525758e-23</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.948493631448469e-23</v>
+        <v>1.947688467976745e-23</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.777521221175697e-23</v>
+        <v>1.776275311166524e-23</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.582083014861553e-23</v>
+        <v>1.581070601327741e-23</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.375933306412622e-23</v>
+        <v>1.375829061846801e-23</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.173439707695009e-23</v>
+        <v>1.174901622040455e-23</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>9.873448296696301e-24</v>
+        <v>9.909037319104029e-24</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>8.196745943599359e-24</v>
+        <v>8.250055604633118e-24</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.681286082807844e-24</v>
+        <v>6.737606491222469e-24</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>5.325004275857075e-24</v>
+        <v>5.365404617826959e-24</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>4.169303674416939e-24</v>
+        <v>4.18559042238804e-24</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.258687739646078e-24</v>
+        <v>3.254882232530703e-24</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.592743487912169e-24</v>
+        <v>2.577748353528761e-24</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.129864078691175e-24</v>
+        <v>2.110737448900634e-24</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.826918061613454e-24</v>
+        <v>1.808624646906501e-24</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.640773986309721e-24</v>
+        <v>1.626185075806901e-24</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.528300402410272e-24</v>
+        <v>1.518193863861949e-24</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.448033391870839e-24</v>
+        <v>1.441189629578316e-24</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.381417039171952e-24</v>
+        <v>1.375937231880656e-24</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.326540193171165e-24</v>
+        <v>1.32080411477548e-24</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.281866392859736e-24</v>
+        <v>1.274553973895852e-24</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.24585917722894e-24</v>
+        <v>1.235950504874852e-24</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.216982085270098e-24</v>
+        <v>1.20375740334561e-24</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.193698655974484e-24</v>
+        <v>1.176738364941203e-24</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.174472428333388e-24</v>
+        <v>1.153657085294726e-24</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.157766941338091e-24</v>
+        <v>1.133277260039267e-24</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.1422488257317e-24</v>
+        <v>1.114522589003077e-24</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.12759082889075e-24</v>
+        <v>1.097109432871968e-24</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.113776689805263e-24</v>
+        <v>1.080999164560805e-24</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.100790238510008e-24</v>
+        <v>1.066153228713329e-24</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.088615305039737e-24</v>
+        <v>1.052533069973257e-24</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.077235719429206e-24</v>
+        <v>1.040100132984314e-24</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.066635311713167e-24</v>
+        <v>1.028815862390221e-24</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.056797911926387e-24</v>
+        <v>1.018641702834715e-24</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.047707350103618e-24</v>
+        <v>1.009539098961515e-24</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.039347456279613e-24</v>
+        <v>1.001469495414344e-24</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.031702060489136e-24</v>
+        <v>9.943943368369333e-25</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.024754992766942e-24</v>
+        <v>9.882750678730059e-25</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.018490083147785e-24</v>
+        <v>9.830731331662868e-25</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.012891161666422e-24</v>
+        <v>9.787499773604998e-25</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.007942058357613e-24</v>
+        <v>9.752670450993744e-25</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.003626603256115e-24</v>
+        <v>9.725857810266341e-25</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>9.9992862639668e-25</v>
+        <v>9.706676297860035e-25</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>9.968319578140705e-25</v>
+        <v>9.694740360212102e-25</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>9.94320427543041e-25</v>
+        <v>9.689664443759781e-25</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>9.923778656183485e-25</v>
+        <v>9.691062994940332e-25</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>9.909881020747491e-25</v>
+        <v>9.698550460191012e-25</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>9.901349669470012e-25</v>
+        <v>9.711741285949072e-25</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>9.898022902698617e-25</v>
+        <v>9.730249918651773e-25</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>9.899739020780863e-25</v>
+        <v>9.753690804736375e-25</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>9.906336324064325e-25</v>
+        <v>9.781678390640113e-25</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>9.91765311289657e-25</v>
+        <v>9.813827122800254e-25</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>9.93352768762517e-25</v>
+        <v>9.849751447654049e-25</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>9.953798348597703e-25</v>
+        <v>9.88906581163878e-25</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>9.978303396161718e-25</v>
+        <v>9.931384661191658e-25</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.00068811306648e-24</v>
+        <v>9.976322442749964e-25</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.00393698524545e-24</v>
+        <v>1.002349360275095e-24</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.007560786187843e-24</v>
+        <v>1.007251258763188e-24</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.01154334592841e-24</v>
+        <v>1.012299384382999e-24</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.015868494501912e-24</v>
+        <v>1.017455181778254e-24</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.020520065408765e-24</v>
+        <v>1.022680101616895e-24</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.025494275077001e-24</v>
+        <v>1.027957119303812e-24</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.030827535352374e-24</v>
+        <v>1.033339080295624e-24</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.036564399629343e-24</v>
+        <v>1.038892982170297e-24</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.042749421302359e-24</v>
+        <v>1.044685822505787e-24</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.049427153765881e-24</v>
+        <v>1.050784598880059e-24</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.056642150414365e-24</v>
+        <v>1.057256308871074e-24</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.064438964642271e-24</v>
+        <v>1.064167950056799e-24</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.072862149844049e-24</v>
+        <v>1.071586520015189e-24</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.081956259414158e-24</v>
+        <v>1.079579016324209e-24</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.091765846747055e-24</v>
+        <v>1.088212436561821e-24</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.102335465237201e-24</v>
+        <v>1.097553778305992e-24</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.113709668279043e-24</v>
+        <v>1.107670039134675e-24</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.12593300926704e-24</v>
+        <v>1.118628216625837e-24</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.139050041595657e-24</v>
+        <v>1.130495308357444e-24</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.153105318659338e-24</v>
+        <v>1.143338311907448e-24</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.168143393852544e-24</v>
+        <v>1.157224224853818e-24</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.184208820569731e-24</v>
+        <v>1.172220044774513e-24</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.201346152205366e-24</v>
+        <v>1.188392769247505e-24</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.219599942153886e-24</v>
+        <v>1.205809395850741e-24</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.239014743809759e-24</v>
+        <v>1.224536922162189e-24</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.259635110567447e-24</v>
+        <v>1.244642345759822e-24</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.281505595821391e-24</v>
+        <v>1.266192664221583e-24</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.304670752966054e-24</v>
+        <v>1.289254875125442e-24</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.329175135395893e-24</v>
+        <v>1.313895976049363e-24</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.355063296505377e-24</v>
+        <v>1.340182964571319e-24</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.382379789688937e-24</v>
+        <v>1.368182838269249e-24</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.411235300581828e-24</v>
+        <v>1.398021028403229e-24</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.442093850718653e-24</v>
+        <v>1.43013516974215e-24</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.475536983370199e-24</v>
+        <v>1.465066737900008e-24</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.512146320951392e-24</v>
+        <v>1.503357278421653e-24</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.552503485877147e-24</v>
+        <v>1.545548336851919e-24</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.597190100562397e-24</v>
+        <v>1.592181458735665e-24</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.646787787422018e-24</v>
+        <v>1.643798189617683e-24</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.70187816887094e-24</v>
+        <v>1.700940075042827e-24</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.763042867324107e-24</v>
+        <v>1.764148660555965e-24</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.830863505196377e-24</v>
+        <v>1.833965491701872e-24</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.905921704902689e-24</v>
+        <v>1.910932114025413e-24</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.988799088857958e-24</v>
+        <v>1.995590073071421e-24</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>2.08007727947714e-24</v>
+        <v>2.088480914384777e-24</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>2.180337899175065e-24</v>
+        <v>2.19014618351023e-24</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>2.290162570366688e-24</v>
+        <v>2.301127425992658e-24</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>2.410132915466978e-24</v>
+        <v>2.421966187376951e-24</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.540830556890739e-24</v>
+        <v>2.553204013207835e-24</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.683048391658889e-24</v>
+        <v>2.695599363581475e-24</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.839823602194372e-24</v>
+        <v>2.852214894873214e-24</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>3.015546692405301e-24</v>
+        <v>3.027502711666645e-24</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>3.214626828269809e-24</v>
+        <v>3.225934078796679e-24</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.441473175766265e-24</v>
+        <v>3.451980261098453e-24</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.70049490087296e-24</v>
+        <v>3.710112523407033e-24</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.996101169568328e-24</v>
+        <v>4.004802130557625e-24</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.332701147830395e-24</v>
+        <v>4.34052034738503e-24</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.714704001637579e-24</v>
+        <v>4.721738438724438e-24</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>5.146518896968379e-24</v>
+        <v>5.152927669411119e-24</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>5.632554999800699e-24</v>
+        <v>5.638559304279752e-24</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>6.177221476113015e-24</v>
+        <v>6.183104608165583e-24</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>6.784927491883904e-24</v>
+        <v>6.791034845903968e-24</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>7.458864656736336e-24</v>
+        <v>7.465596931878585e-24</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>8.187309952948139e-24</v>
+        <v>8.195039927895315e-24</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>8.948544130327472e-24</v>
+        <v>8.957560883232733e-24</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>9.720663701667182e-24</v>
+        <v>9.731171582091642e-24</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.048176517975907e-23</v>
+        <v>1.04938838086718e-23</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.120994507739597e-23</v>
+        <v>1.1223709347174e-23</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.18832999073704e-23</v>
+        <v>1.18986599817987e-23</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.24799261824751e-23</v>
+        <v>1.249674749674661e-23</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.297792041550202e-23</v>
+        <v>1.299598367621764e-23</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.335537911924395e-23</v>
+        <v>1.337438030441253e-23</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.359039880649347e-23</v>
+        <v>1.36099491655318e-23</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.366107599004284e-23</v>
+        <v>1.36807020437757e-23</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.354550718268472e-23</v>
+        <v>1.356465072334481e-23</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.322388715431545e-23</v>
+        <v>1.324191465910178e-23</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.270626165509238e-23</v>
+        <v>1.272259820872138e-23</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.202489029038664e-23</v>
+        <v>1.203911924467232e-23</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.121256156470056e-23</v>
+        <v>1.122442691139185e-23</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.030206398253624e-23</v>
+        <v>1.031147035331701e-23</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>9.32618604839708e-24</v>
+        <v>9.333198714886118e-24</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>8.3177162667852e-24</v>
+        <v>8.32256114053624e-24</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>7.309443142203144e-24</v>
+        <v>7.312506774704842e-24</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>6.334155179153017e-24</v>
+        <v>6.335984761828964e-24</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>5.424640882138248e-24</v>
+        <v>5.425944246346965e-24</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>4.613688755660928e-24</v>
+        <v>4.615334372695864e-24</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>3.934087304223317e-24</v>
+        <v>3.937104285312856e-24</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>3.418625032328576e-24</v>
+        <v>3.424203128636031e-24</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>3.100090444478904e-24</v>
+        <v>3.109580047102521e-24</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.001621280672678e-24</v>
+        <v>3.016386870297654e-24</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.011309002609998e-24</v>
+        <v>3.030678422950073e-24</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.917873510857446e-24</v>
+        <v>2.937628975573898e-24</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.508075563000563e-24</v>
+        <v>2.520426518575845e-24</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.754133725652029e-24</v>
+        <v>1.751935580572372e-24</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.115084182453087e-24</v>
+        <v>1.102895264676834e-24</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>8.57377596310718e-25</v>
+        <v>8.45904115642393e-25</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>8.025610025482822e-25</v>
+        <v>7.966218721090578e-25</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>7.575568693932961e-25</v>
+        <v>7.558448068721481e-25</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>6.805886456366359e-25</v>
+        <v>6.806632489839184e-25</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>5.83800957717577e-25</v>
+        <v>5.838681550896582e-25</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>4.794045563127286e-25</v>
+        <v>4.783187882344637e-25</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.793761251391765e-25</v>
+        <v>3.766297026026077e-25</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.910768436991324e-25</v>
+        <v>2.865901033379737e-25</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.176425989367487e-25</v>
+        <v>2.115717992521631e-25</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.620534441070565e-25</v>
+        <v>1.547836804577012e-25</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.272894324651579e-25</v>
+        <v>1.194346370671871e-25</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.163306172660751e-25</v>
+        <v>1.087335591931374e-25</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.321570517648591e-25</v>
+        <v>1.258893369480986e-25</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.77748789216589e-25</v>
+        <v>1.741108604446466e-25</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.560858828762758e-25</v>
+        <v>2.566070197952856e-25</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.759058688621946e-25</v>
+        <v>3.820626785031305e-25</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>6.127995825663231e-25</v>
+        <v>6.227472380701564e-25</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.046058657066058e-24</v>
+        <v>1.053934771444927e-24</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.560226694214869e-24</v>
+        <v>1.563117210476404e-24</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.982390943684556e-24</v>
+        <v>1.982416723051984e-24</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>2.25335435179073e-24</v>
+        <v>2.254665935806525e-24</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.45881160050564e-24</v>
+        <v>2.463759847598543e-24</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.693859035745162e-24</v>
+        <v>2.702746643372201e-24</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.053584578102283e-24</v>
+        <v>3.06466621286982e-24</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.588593729273348e-24</v>
+        <v>3.598763015305342e-24</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>4.201175468497429e-24</v>
+        <v>4.208255594112846e-24</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>4.762744394361654e-24</v>
+        <v>4.765964937321644e-24</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>5.144715105453268e-24</v>
+        <v>5.144712032961163e-24</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>5.232360336210733e-24</v>
+        <v>5.231085865009694e-24</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>5.097317968656891e-24</v>
+        <v>5.096828357530524e-24</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>4.944658191952966e-24</v>
+        <v>4.946245834579229e-24</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>4.982350901554541e-24</v>
+        <v>4.986525465437773e-24</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>5.364320693231074e-24</v>
+        <v>5.370992407549481e-24</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>6.012457991592604e-24</v>
+        <v>6.021724561953559e-24</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.78639505989242e-24</v>
+        <v>6.798752809069019e-24</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>7.545763400057894e-24</v>
+        <v>7.562107270570907e-24</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>8.150194870196949e-24</v>
+        <v>8.17181842177304e-24</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>8.498014248692553e-24</v>
+        <v>8.52633353768742e-24</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>8.632696171739533e-24</v>
+        <v>8.668213932125385e-24</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>8.631745077478148e-24</v>
+        <v>8.673807877231062e-24</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>8.57266540404844e-24</v>
+        <v>8.619463645148357e-24</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>8.530342560508957e-24</v>
+        <v>8.57897344571273e-24</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>8.538544478743321e-24</v>
+        <v>8.586000559162096e-24</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>8.598370216249985e-24</v>
+        <v>8.642324817373537e-24</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>8.710017594563355e-24</v>
+        <v>8.748846483801248e-24</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>8.873684435217665e-24</v>
+        <v>8.906465821899265e-24</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>9.089568559747299e-24</v>
+        <v>9.116083095121766e-24</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>9.357867789686603e-24</v>
+        <v>9.378598566922881e-24</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>9.678779946570071e-24</v>
+        <v>9.6949125007569e-24</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.005246034977451e-23</v>
+        <v>1.006587994506941e-23</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.047352820221263e-23</v>
+        <v>1.048646646956186e-23</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.09256324032193e-23</v>
+        <v>1.093996712180035e-23</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.139113041763697e-23</v>
+        <v>1.140830308446908e-23</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.185237971030869e-23</v>
+        <v>1.18733955402528e-23</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.229173774607733e-23</v>
+        <v>1.231716567183613e-23</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.26915619897859e-23</v>
+        <v>1.272153466190382e-23</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.30342099062769e-23</v>
+        <v>1.306842369314007e-23</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.330203896039337e-23</v>
+        <v>1.333975394822968e-23</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.347743622530089e-23</v>
+        <v>1.351747708828875e-23</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.354891131553238e-23</v>
+        <v>1.358984724079041e-23</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.351855897604341e-23</v>
+        <v>1.355910289399964e-23</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.339030053080507e-23</v>
+        <v>1.342936279343137e-23</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.316805730378833e-23</v>
+        <v>1.320474568460036e-23</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.285575061896449e-23</v>
+        <v>1.288937031302175e-23</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.245730180030454e-23</v>
+        <v>1.248735542421033e-23</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.197663217177936e-23</v>
+        <v>1.200281976368079e-23</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.141766305736048e-23</v>
+        <v>1.143988207694848e-23</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.078484431571285e-23</v>
+        <v>1.080318383672358e-23</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.009066433600818e-23</v>
+        <v>1.010531671946803e-23</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.353866798282462e-24</v>
+        <v>9.365058959853042e-24</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.593360221158005e-24</v>
+        <v>8.601351819902477e-24</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.828053123256148e-24</v>
+        <v>7.83313656163921e-24</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>7.076854023198218e-24</v>
+        <v>7.079354447086104e-24</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>6.358671439606551e-24</v>
+        <v>6.35894673826704e-24</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>5.692413891102466e-24</v>
+        <v>5.69085469720487e-24</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>5.096989896307616e-24</v>
+        <v>5.09401958592279e-24</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>4.586476995302848e-24</v>
+        <v>4.582540111167444e-24</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>4.155029461383496e-24</v>
+        <v>4.150543969695824e-24</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>3.791666294711881e-24</v>
+        <v>3.787011279198541e-24</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>3.485406490193564e-24</v>
+        <v>3.480922152096852e-24</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>3.225269042734e-24</v>
+        <v>3.221256700811904e-24</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>3.000272947238981e-24</v>
+        <v>2.996995037765184e-24</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.799437198613943e-24</v>
+        <v>2.797117275377823e-24</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>2.611780791764364e-24</v>
+        <v>2.610603526070993e-24</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.426355399188165e-24</v>
+        <v>2.426466507127532e-24</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.238341450898207e-24</v>
+        <v>2.239834052521158e-24</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.056220504656472e-24</v>
+        <v>2.059105519549509e-24</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.890217432489703e-24</v>
+        <v>1.894419699666636e-24</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.750557106424389e-24</v>
+        <v>1.755915384326339e-24</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.647464398487102e-24</v>
+        <v>1.653731364982503e-24</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.591164180704403e-24</v>
+        <v>1.598006433088997e-24</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.591881325102919e-24</v>
+        <v>1.598879380099761e-24</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.659840703709188e-24</v>
+        <v>1.666488997468641e-24</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.805059605959058e-24</v>
+        <v>1.810768086787902e-24</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.025926841852904e-24</v>
+        <v>2.030110192617716e-24</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>2.303266891397276e-24</v>
+        <v>2.305479296218949e-24</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>2.616445816910989e-24</v>
+        <v>2.616392151237516e-24</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>2.944829680712925e-24</v>
+        <v>2.942365511319398e-24</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>3.267784545121512e-24</v>
+        <v>3.262916130110125e-24</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>3.564676472455629e-24</v>
+        <v>3.557560761255676e-24</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>3.814871525034106e-24</v>
+        <v>3.805816158401981e-24</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>3.997735765175444e-24</v>
+        <v>3.987199075194641e-24</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>4.09668694979961e-24</v>
+        <v>4.085248877722701e-24</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>4.116347780096643e-24</v>
+        <v>4.104557671996019e-24</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>4.06825474131233e-24</v>
+        <v>4.056581722483941e-24</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>3.963948123578342e-24</v>
+        <v>3.952781071231075e-24</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>3.814968217026295e-24</v>
+        <v>3.804615760281979e-24</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>3.632855311787813e-24</v>
+        <v>3.623545831681213e-24</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>3.429149697994421e-24</v>
+        <v>3.421031327473246e-24</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>3.215391665777934e-24</v>
+        <v>3.208532289702827e-24</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>3.003121335192923e-24</v>
+        <v>2.997508591508324e-24</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.80159922051062e-24</v>
+        <v>2.797156193705367e-24</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>2.612091431152301e-24</v>
+        <v>2.608731688037496e-24</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>2.434112582211024e-24</v>
+        <v>2.431752229709773e-24</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>2.267177288779941e-24</v>
+        <v>2.265734973927353e-24</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>2.110800165952135e-24</v>
+        <v>2.110197075895323e-24</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.964495828820898e-24</v>
+        <v>1.964655690818977e-24</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.827778892479308e-24</v>
+        <v>1.828627973903399e-24</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.700163972020516e-24</v>
+        <v>1.701631080353742e-24</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.581165682537623e-24</v>
+        <v>1.583182165375111e-24</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.470298639123887e-24</v>
+        <v>1.472798384172767e-24</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.367077456872402e-24</v>
+        <v>1.369996891951809e-24</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.271016750876279e-24</v>
+        <v>1.27429484391735e-24</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.181631136228756e-24</v>
+        <v>1.185209395274632e-24</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.098435228022939e-24</v>
+        <v>1.102257701228765e-24</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.020943641351945e-24</v>
+        <v>1.024956916984869e-24</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>9.486709913089958e-25</v>
+        <v>9.528241977481702e-25</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>8.811318929872056e-25</v>
+        <v>8.853766987237859e-25</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>8.178731728859411e-25</v>
+        <v>8.221638166714381e-25</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>7.586568372679224e-25</v>
+        <v>7.629503295122786e-25</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>7.033330578401849e-25</v>
+        <v>7.075892631304586e-25</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>6.517522726689819e-25</v>
+        <v>6.559339100186464e-25</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>6.037649198205943e-25</v>
+        <v>6.078375626695381e-25</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.592214373612838e-25</v>
+        <v>5.631535135758107e-25</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.179722633573712e-25</v>
+        <v>5.217350552302001e-25</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>4.798678358751165e-25</v>
+        <v>4.834354801253813e-25</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>4.447585929807854e-25</v>
+        <v>4.481080807540355e-25</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>4.124949727406903e-25</v>
+        <v>4.1560614960889e-25</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>3.829274132210956e-25</v>
+        <v>3.857829791826246e-25</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>3.559063524882704e-25</v>
+        <v>3.584918619679236e-25</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.3128222860852e-25</v>
+        <v>3.335860904575073e-25</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.089054796481124e-25</v>
+        <v>3.10918957144059e-25</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.886265436733197e-25</v>
+        <v>2.903437545202659e-25</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.70295858750449e-25</v>
+        <v>2.717137750788506e-25</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.537638629457479e-25</v>
+        <v>2.548823113124753e-25</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.388809943255144e-25</v>
+        <v>2.397026557138536e-25</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.254976909560406e-25</v>
+        <v>2.260281007756929e-25</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.134643909035831e-25</v>
+        <v>2.137119389906646e-25</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.026315322344446e-25</v>
+        <v>2.026074628514869e-25</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.928495530148863e-25</v>
+        <v>1.925679648508358e-25</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.83968891311199e-25</v>
+        <v>1.834467374814177e-25</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.758399851896705e-25</v>
+        <v>1.750970732359355e-25</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.683132727165668e-25</v>
+        <v>1.673722646070702e-25</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.612391919581764e-25</v>
+        <v>1.601256040875255e-25</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.54475272772114e-25</v>
+        <v>1.532172391061186e-25</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.479617305504299e-25</v>
+        <v>1.465872410530446e-25</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.41692242023669e-25</v>
+        <v>1.402273571283282e-25</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.356613801632301e-25</v>
+        <v>1.341302008397454e-25</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.298637179404959e-25</v>
+        <v>1.282883856950557e-25</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.242938283268654e-25</v>
+        <v>1.226945252020355e-25</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.189462842937371e-25</v>
+        <v>1.173412328684601e-25</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.138156588124947e-25</v>
+        <v>1.122211222020904e-25</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.088965248545367e-25</v>
+        <v>1.07326806710702e-25</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.041834553912609e-25</v>
+        <v>1.026508999020697e-25</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>9.967102339405222e-26</v>
+        <v>9.818601528395558e-26</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>9.535380183431247e-26</v>
+        <v>9.392476636413838e-26</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>9.122636368342738e-26</v>
+        <v>8.985976665038103e-26</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>8.728328191279448e-26</v>
+        <v>8.59836296504581e-26</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>8.351912949381064e-26</v>
+        <v>8.228896887214344e-26</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>7.992847939786257e-26</v>
+        <v>7.876839782320099e-26</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>7.650590459634739e-26</v>
+        <v>7.541453001140484e-26</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>7.324600748287289e-26</v>
+        <v>7.222004127775269e-26</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>7.014424054892321e-26</v>
+        <v>6.91794084611704e-26</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>6.719701557344534e-26</v>
+        <v>6.628914072505299e-26</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>6.440079569552192e-26</v>
+        <v>6.354585604320478e-26</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>6.175204405422803e-26</v>
+        <v>6.09461723894227e-26</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>5.924722378864857e-26</v>
+        <v>5.848670773751325e-26</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>5.688279803785917e-26</v>
+        <v>5.616408006127391e-26</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>5.465522994094234e-26</v>
+        <v>5.39749073345088e-26</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>5.256098263697998e-26</v>
+        <v>5.191580753102159e-26</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>5.059651926504851e-26</v>
+        <v>4.998339862461044e-26</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.875830296422997e-26</v>
+        <v>4.817429858907911e-26</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>4.704279687360602e-26</v>
+        <v>4.648512539823095e-26</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>4.54464641322537e-26</v>
+        <v>4.491249702586476e-26</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.396576787925475e-26</v>
+        <v>4.345303144578402e-26</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>4.25971712536905e-26</v>
+        <v>4.210334663179171e-26</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>4.133713739463862e-26</v>
+        <v>4.086006055768731e-26</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.018212944118051e-26</v>
+        <v>3.97197911972739e-26</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.912861053239726e-26</v>
+        <v>3.867915652435429e-26</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>3.817304380736707e-26</v>
+        <v>3.773477451272844e-26</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>3.731189240517182e-26</v>
+        <v>3.688326313619992e-26</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>3.654161946489012e-26</v>
+        <v>3.612124036856907e-26</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>3.58586881256029e-26</v>
+        <v>3.544532418363857e-26</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>3.525956152639082e-26</v>
+        <v>3.485213255521076e-26</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>3.474070280633293e-26</v>
+        <v>3.433828345708647e-26</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>3.429857510450996e-26</v>
+        <v>3.39003948630681e-26</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>3.392964156000232e-26</v>
+        <v>3.353508474695783e-26</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>3.363036531188951e-26</v>
+        <v>3.323897108255687e-26</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>3.339720949925203e-26</v>
+        <v>3.300867184366743e-26</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>3.322663726117015e-26</v>
+        <v>3.284080500409151e-26</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>3.31151117367237e-26</v>
+        <v>3.273198853763067e-26</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>3.305909606499299e-26</v>
+        <v>3.267884041808695e-26</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>3.305505338505813e-26</v>
+        <v>3.267797861926218e-26</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>3.30994468359993e-26</v>
+        <v>3.272602111495826e-26</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>3.318873955689654e-26</v>
+        <v>3.281958587897694e-26</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>3.331939468683012e-26</v>
+        <v>3.295529088512027e-26</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>3.348802074356536e-26</v>
+        <v>3.312989394817137e-26</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>3.369344731852306e-26</v>
+        <v>3.334228935236351e-26</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>3.393623750966004e-26</v>
+        <v>3.359303885646263e-26</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>3.421700039863052e-26</v>
+        <v>3.388274845134027e-26</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>3.453634506708858e-26</v>
+        <v>3.421202412786792e-26</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>3.489488059668916e-26</v>
+        <v>3.45814718769179e-26</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>3.529321606908641e-26</v>
+        <v>3.499169768936172e-26</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.573196056593429e-26</v>
+        <v>3.544330755607071e-26</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>3.621172316888797e-26</v>
+        <v>3.593690746791746e-26</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>3.673311295960099e-26</v>
+        <v>3.647310341577283e-26</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>3.729673901972865e-26</v>
+        <v>3.705250139050953e-26</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>3.790321043092489e-26</v>
+        <v>3.767570738299888e-26</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>3.85531362748435e-26</v>
+        <v>3.834332738411202e-26</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.924712563314004e-26</v>
+        <v>3.905596738472192e-26</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.998578758746834e-26</v>
+        <v>3.981423337569975e-26</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>4.076973121948203e-26</v>
+        <v>4.061873134791653e-26</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>4.159956561083693e-26</v>
+        <v>4.147006729224547e-26</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>4.247589984318675e-26</v>
+        <v>4.236884719955763e-26</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>4.339934299818499e-26</v>
+        <v>4.33156770607239e-26</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>4.437050415748772e-26</v>
+        <v>4.431116286661774e-26</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.538999240274853e-26</v>
+        <v>4.535591060811011e-26</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.645841681562081e-26</v>
+        <v>4.645052627607174e-26</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.757896080419433e-26</v>
+        <v>4.759816900854787e-26</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.878249232076034e-26</v>
+        <v>4.882945472404603e-26</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>5.01167303215759e-26</v>
+        <v>5.01917117100076e-26</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>5.162963253436753e-26</v>
+        <v>5.173250506094482e-26</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>5.336915668685656e-26</v>
+        <v>5.349939987136465e-26</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>5.538326050677026e-26</v>
+        <v>5.553996123578006e-26</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>5.771990172183136e-26</v>
+        <v>5.790175424869945e-26</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>6.042703805976134e-26</v>
+        <v>6.063234400462995e-26</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>6.355262724828927e-26</v>
+        <v>6.377929559808632e-26</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>6.714462701513701e-26</v>
+        <v>6.739017412357609e-26</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>7.125099508802479e-26</v>
+        <v>7.151254467560512e-26</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>7.591968919468414e-26</v>
+        <v>7.61939723486907e-26</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>8.119866706283576e-26</v>
+        <v>8.148202223733913e-26</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>8.712536064283205e-26</v>
+        <v>8.741377480238464e-26</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>9.366484991313443e-26</v>
+        <v>9.395424134585328e-26</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.007517992590962e-25</v>
+        <v>1.010381364666867e-25</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.08320767811112e-25</v>
+        <v>1.086000699202938e-25</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.163063146995573e-25</v>
+        <v>1.165746514620644e-25</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.24642999054806e-25</v>
+        <v>1.248964908473867e-25</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.332653800072549e-25</v>
+        <v>1.335001978316719e-25</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.421080166872781e-25</v>
+        <v>1.423203821703084e-25</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.511054682252493e-25</v>
+        <v>1.512916536186842e-25</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.601803806468558e-25</v>
+        <v>1.603368047489927e-25</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.692009960982799e-25</v>
+        <v>1.693246623010482e-25</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.780200353980584e-25</v>
+        <v>1.781086566610659e-25</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.864902181935043e-25</v>
+        <v>1.865422170534679e-25</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.944642641318998e-25</v>
+        <v>1.944787727026454e-25</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.017948928605564e-25</v>
+        <v>2.017717528330191e-25</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.083348240267639e-25</v>
+        <v>2.082745866689876e-25</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.139367772778147e-25</v>
+        <v>2.138407034349525e-25</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.184534722610161e-25</v>
+        <v>2.183235323553303e-25</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.217376286236598e-25</v>
+        <v>2.215765026545215e-25</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.236419660130417e-25</v>
+        <v>2.234530435569313e-25</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.240192040764626e-25</v>
+        <v>2.238065842869693e-25</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.227220624612171e-25</v>
+        <v>2.224905540690394e-25</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.196032608146062e-25</v>
+        <v>2.193583821275514e-25</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.145155187839211e-25</v>
+        <v>2.142634976869058e-25</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.073115560164613e-25</v>
+        <v>2.07059329971511e-25</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.978440921595331e-25</v>
+        <v>1.975993082057825e-25</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.860255538959654e-25</v>
+        <v>1.857963448770751e-25</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.721686482335164e-25</v>
+        <v>1.719621326099388e-25</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.567506167880018e-25</v>
+        <v>1.565722819871356e-25</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.402492069878916e-25</v>
+        <v>1.401029075083754e-25</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.231421662617129e-25</v>
+        <v>1.230301236734246e-25</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.059072420379326e-25</v>
+        <v>1.058300449819901e-25</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>8.902218174506419e-26</v>
+        <v>8.89787859338249e-26</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>7.29647328116198e-26</v>
+        <v>7.295246102868071e-26</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>5.821264266606836e-26</v>
+        <v>5.822718476626623e-26</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>4.524365873692297e-26</v>
+        <v>4.527907164633415e-26</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.453514798003392e-26</v>
+        <v>3.458385709115581e-26</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.635373609622814e-26</v>
+        <v>2.640730804958123e-26</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.040571419822354e-26</v>
+        <v>2.045691161179085e-26</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.630527499645596e-26</v>
+        <v>1.634839418764856e-26</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.366661120135114e-26</v>
+        <v>1.369748218700817e-26</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.210391552334746e-26</v>
+        <v>1.211990201973611e-26</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.123138067287524e-26</v>
+        <v>1.123138009569076e-26</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.066447462161487e-26</v>
+        <v>1.064891282732715e-26</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.014535836626306e-26</v>
+        <v>1.011566722213397e-26</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>9.648641157790213e-27</v>
+        <v>9.606300020775532e-27</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>9.173832998593736e-27</v>
+        <v>9.120266034874932e-27</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>8.720443891070963e-27</v>
+        <v>8.657020076055177e-27</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>8.287983837618007e-27</v>
+        <v>8.216016955938032e-27</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>7.875962840632222e-27</v>
+        <v>7.796711486146526e-27</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>7.483890902510881e-27</v>
+        <v>7.398558478303606e-27</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>7.111278025650212e-27</v>
+        <v>7.021012744031158e-27</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>6.757634212447506e-27</v>
+        <v>6.663529094952146e-27</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>6.422469465299993e-27</v>
+        <v>6.325562342689469e-27</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>6.105293786604001e-27</v>
+        <v>6.006567298865118e-27</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>5.805617178756769e-27</v>
+        <v>5.705998775102003e-27</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.52294964415548e-27</v>
+        <v>5.423311583022977e-27</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>5.256801185196553e-27</v>
+        <v>5.157960534250126e-27</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>5.006681804277407e-27</v>
+        <v>4.909400440406532e-27</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>4.772101503794516e-27</v>
+        <v>4.677086113114343e-27</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>4.552570286145048e-27</v>
+        <v>4.460472363996397e-27</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>4.347598153726115e-27</v>
+        <v>4.259014004675464e-27</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>4.156695108934278e-27</v>
+        <v>4.072165846773783e-27</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>3.97937115416666e-27</v>
+        <v>3.899382701914142e-27</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>3.815136291820335e-27</v>
+        <v>3.740119381719278e-27</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>3.663500524291943e-27</v>
+        <v>3.593830697811507e-27</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>3.523973853978566e-27</v>
+        <v>3.459971461813576e-27</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>3.396066283277248e-27</v>
+        <v>3.337996485348189e-27</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>3.279287814584691e-27</v>
+        <v>3.227360580037729e-27</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>3.173148450298036e-27</v>
+        <v>3.127518557504995e-27</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>3.077158192814029e-27</v>
+        <v>3.037925229372409e-27</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.990827044529696e-27</v>
+        <v>2.958035407262662e-27</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.91366500784204e-27</v>
+        <v>2.887303902798418e-27</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.845182085147852e-27</v>
+        <v>2.825185527602149e-27</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.784888278844138e-27</v>
+        <v>2.77113509329652e-27</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.732293591327874e-27</v>
+        <v>2.724607411504173e-27</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.686908024995898e-27</v>
+        <v>2.685057293847623e-27</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.648241582245193e-27</v>
+        <v>2.651939551949516e-27</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.615804265472717e-27</v>
+        <v>2.624708997432473e-27</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.589106077075343e-27</v>
+        <v>2.602820441919046e-27</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.567657019450055e-27</v>
+        <v>2.585728697031876e-27</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.550967094993744e-27</v>
+        <v>2.57288857439353e-27</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.538546306103366e-27</v>
+        <v>2.56375488562663e-27</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.529904766100089e-27</v>
+        <v>2.557782573702124e-27</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.524668625734691e-27</v>
+        <v>2.554563984613906e-27</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.522799761391629e-27</v>
+        <v>2.554089006055089e-27</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.524320413620065e-27</v>
+        <v>2.556419004540197e-27</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.529252822969165e-27</v>
+        <v>2.56161534658376e-27</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.537619229988095e-27</v>
+        <v>2.569739398700304e-27</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.549441875226008e-27</v>
+        <v>2.580852527404343e-27</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.564742999232089e-27</v>
+        <v>2.595016099210423e-27</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.583544842555494e-27</v>
+        <v>2.612291480633064e-27</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.605869645745367e-27</v>
+        <v>2.632740038186771e-27</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.631739649350912e-27</v>
+        <v>2.656423138386108e-27</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.661177093921274e-27</v>
+        <v>2.683402147745582e-27</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.694204220005589e-27</v>
+        <v>2.713738432779693e-27</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.73084326815308e-27</v>
+        <v>2.747493360003021e-27</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.771116478912846e-27</v>
+        <v>2.784728295930032e-27</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.815046092834125e-27</v>
+        <v>2.825504607075318e-27</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.862654350466045e-27</v>
+        <v>2.869883659953375e-27</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.913963492357724e-27</v>
+        <v>2.917926821078684e-27</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.96899575905842e-27</v>
+        <v>2.969695456965856e-27</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.027773391117253e-27</v>
+        <v>3.025250934129379e-27</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>3.090318629083328e-27</v>
+        <v>3.084654619083721e-27</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.156653713505925e-27</v>
+        <v>3.147967878343518e-27</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.226800884934151e-27</v>
+        <v>3.215252078423241e-27</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.300782383917106e-27</v>
+        <v>3.286568585837355e-27</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.378620451004086e-27</v>
+        <v>3.361978767100511e-27</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.460337326744115e-27</v>
+        <v>3.441543988727101e-27</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.545955251686509e-27</v>
+        <v>3.525325617231794e-27</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.635496466380354e-27</v>
+        <v>3.613385019129047e-27</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.728983211374734e-27</v>
+        <v>3.705783560933302e-27</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.826437727218979e-27</v>
+        <v>3.802582609159249e-27</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.927882254462175e-27</v>
+        <v>3.903843530321337e-27</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>4.033339033653387e-27</v>
+        <v>4.009627690933991e-27</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>4.142830305341971e-27</v>
+        <v>4.119996457511931e-27</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>4.256378310076999e-27</v>
+        <v>4.235011196569588e-27</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>4.374005288407526e-27</v>
+        <v>4.35473327462138e-27</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>4.49573348088293e-27</v>
+        <v>4.479224058182047e-27</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>4.621585128052156e-27</v>
+        <v>4.608544913765893e-27</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>4.751582470464598e-27</v>
+        <v>4.742757207887676e-27</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>4.885747737133824e-27</v>
+        <v>4.881922294196469e-27</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>5.023772079825436e-27</v>
+        <v>5.025732281113479e-27</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>5.164149753480186e-27</v>
+        <v>5.172544396926925e-27</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>5.305104630341362e-27</v>
+        <v>5.320414316371122e-27</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>5.44486058265174e-27</v>
+        <v>5.467397714179851e-27</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>5.581641482654608e-27</v>
+        <v>5.61155026508743e-27</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>5.713671202592868e-27</v>
+        <v>5.750927643827769e-27</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>5.839173614709441e-27</v>
+        <v>5.883585525134804e-27</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>5.956372591247585e-27</v>
+        <v>6.007579583742818e-27</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>6.063492004450216e-27</v>
+        <v>6.120965494385737e-27</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>6.158755726560284e-27</v>
+        <v>6.221798931797527e-27</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>6.240387629820991e-27</v>
+        <v>6.308135570712413e-27</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>6.306611586475274e-27</v>
+        <v>6.378031085864345e-27</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>6.355651468766133e-27</v>
+        <v>6.42954115198734e-27</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>6.385731148936688e-27</v>
+        <v>6.460721443815533e-27</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>6.395074499229916e-27</v>
+        <v>6.469627636082922e-27</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>6.381905391888867e-27</v>
+        <v>6.454315403523569e-27</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>6.34444769915655e-27</v>
+        <v>6.412840420871503e-27</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>6.281097545232172e-27</v>
+        <v>6.343448099551933e-27</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>6.193275216395044e-27</v>
+        <v>6.24771498591222e-27</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>6.084981002719637e-27</v>
+        <v>6.130059517876195e-27</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>5.960297911382718e-27</v>
+        <v>5.994991246813598e-27</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>5.823308949560704e-27</v>
+        <v>5.847019724093795e-27</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>5.678097124430345e-27</v>
+        <v>5.690654501086505e-27</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>5.528745443168421e-27</v>
+        <v>5.530405129161484e-27</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>5.379336912951311e-27</v>
+        <v>5.370781159688054e-27</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>5.233954540955921e-27</v>
+        <v>5.216292144036101e-27</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>5.096681334358628e-27</v>
+        <v>5.071447633574954e-27</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>4.971600300336215e-27</v>
+        <v>4.940757179674366e-27</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>4.862794446065416e-27</v>
+        <v>4.828730333704038e-27</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>4.774346778722677e-27</v>
+        <v>4.739876647033374e-27</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>4.710340305484753e-27</v>
+        <v>4.678705671032095e-27</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>4.674839717348999e-27</v>
+        <v>4.649706922098931e-27</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>4.668765528022486e-27</v>
+        <v>4.6539306895189e-27</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>4.686355353074857e-27</v>
+        <v>4.685117240796887e-27</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>4.720991906270834e-27</v>
+        <v>4.736071717585872e-27</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>4.766057901375233e-27</v>
+        <v>4.799599261538988e-27</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>4.81493605215274e-27</v>
+        <v>4.868505014309164e-27</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>4.861009072368201e-27</v>
+        <v>4.935594117549565e-27</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>4.897659675786325e-27</v>
+        <v>4.993671712913164e-27</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>4.918270576171864e-27</v>
+        <v>5.035542942052993e-27</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>4.916432067320029e-27</v>
+        <v>5.054208155200852e-27</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>4.892269757587534e-27</v>
+        <v>5.048813522418436e-27</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>4.853604623780883e-27</v>
+        <v>5.025741950051674e-27</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>4.808699177063876e-27</v>
+        <v>4.991791564032863e-27</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>4.765815928600424e-27</v>
+        <v>4.953760490294361e-27</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>4.733217389554426e-27</v>
+        <v>4.918446854768542e-27</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>4.719166071089699e-27</v>
+        <v>4.892648783387684e-27</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>4.731106485861087e-27</v>
+        <v>4.882605115850541e-27</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>4.762659607484198e-27</v>
+        <v>4.885103189195587e-27</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>4.795931920062241e-27</v>
+        <v>4.889057593261736e-27</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>4.812678560224509e-27</v>
+        <v>4.883142692749156e-27</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>4.794654664600353e-27</v>
+        <v>4.856032852358054e-27</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>4.728614408998168e-27</v>
+        <v>4.799275242484788e-27</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>4.623679747957137e-27</v>
+        <v>4.71727116005847e-27</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>4.495226161129575e-27</v>
+        <v>4.618015625106301e-27</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>4.358629419668837e-27</v>
+        <v>4.509503825172899e-27</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>4.226833508664002e-27</v>
+        <v>4.398536296563666e-27</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>4.101941378242511e-27</v>
+        <v>4.286587755174854e-27</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>3.983036079638128e-27</v>
+        <v>4.173649346448722e-27</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>3.869200536204436e-27</v>
+        <v>4.059712153004489e-27</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.759517671294705e-27</v>
+        <v>3.944767257461067e-27</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.653070408262522e-27</v>
+        <v>3.828805742437678e-27</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.548941670461455e-27</v>
+        <v>3.711818690553543e-27</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.446214381244801e-27</v>
+        <v>3.593797184427569e-27</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.343971463966222e-27</v>
+        <v>3.474732306679086e-27</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.241295841979015e-27</v>
+        <v>3.354615139926997e-27</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.137270438636751e-27</v>
+        <v>3.233436766790527e-27</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.030978177292908e-27</v>
+        <v>3.111188269888792e-27</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.921501981301066e-27</v>
+        <v>2.987860731841022e-27</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.807976465030789e-27</v>
+        <v>2.863470012189506e-27</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.69078448244608e-27</v>
+        <v>2.7386302859876e-27</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.571591015474354e-27</v>
+        <v>2.614570287424943e-27</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.452119516258154e-27</v>
+        <v>2.492546777070908e-27</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.334093436940025e-27</v>
+        <v>2.373816515494857e-27</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.219236229662195e-27</v>
+        <v>2.259636263265833e-27</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.109271346567212e-27</v>
+        <v>2.151262780953202e-27</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>2.005922239797604e-27</v>
+        <v>2.049952829126311e-27</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.910912361495625e-27</v>
+        <v>1.956963168354233e-27</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.825965163803812e-27</v>
+        <v>1.873550559206321e-27</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.752804098864665e-27</v>
+        <v>1.800971762251893e-27</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.693152618820491e-27</v>
+        <v>1.740483538060077e-27</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.648734175813836e-27</v>
+        <v>1.693342647200235e-27</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.621055706138376e-27</v>
+        <v>1.660760603723426e-27</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.610397589073129e-27</v>
+        <v>1.643692601256604e-27</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.616608789047156e-27</v>
+        <v>1.643003678272023e-27</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.63953779369148e-27</v>
+        <v>1.659558773602806e-27</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.679033090637114e-27</v>
+        <v>1.694222826082088e-27</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.734943167515013e-27</v>
+        <v>1.747860774542936e-27</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.807116511956289e-27</v>
+        <v>1.821337557818571e-27</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.895401611591911e-27</v>
+        <v>1.91551811474208e-27</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.999647049476605e-27</v>
+        <v>2.031267476510181e-27</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.136927325207211e-27</v>
+        <v>2.186124180265393e-27</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.3895973785614e-27</v>
+        <v>2.460813752639829e-27</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.854367256911174e-27</v>
+        <v>2.949919494232389e-27</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.556442697548571e-27</v>
+        <v>3.676423014965631e-27</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>4.407146946868051e-27</v>
+        <v>4.549268339089685e-27</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.307641452368562e-27</v>
+        <v>5.467223852764982e-27</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>6.159087661546718e-27</v>
+        <v>6.329057942149562e-27</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>6.862647021899326e-27</v>
+        <v>7.033538993401679e-27</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>7.320690600303575e-27</v>
+        <v>7.48070266368168e-27</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>7.512714385184456e-27</v>
+        <v>7.651385379555745e-27</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>7.540448976703042e-27</v>
+        <v>7.654483998357124e-27</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>7.516460707932164e-27</v>
+        <v>7.610247551771654e-27</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>7.553315911944515e-27</v>
+        <v>7.638925071485093e-27</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>7.75207380342021e-27</v>
+        <v>7.848266022597784e-27</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>8.102074721576974e-27</v>
+        <v>8.224665637547874e-27</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>8.529835914396757e-27</v>
+        <v>8.686277788494554e-27</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>8.961174524890285e-27</v>
+        <v>9.150495861052436e-27</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>9.321907696069489e-27</v>
+        <v>9.534713240837427e-27</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>9.542754507297066e-27</v>
+        <v>9.761941994236509e-27</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>9.609575924102108e-27</v>
+        <v>9.818398732393664e-27</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>9.542952252050129e-27</v>
+        <v>9.730095950014959e-27</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>9.364005179017344e-27</v>
+        <v>9.523666683192791e-27</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>9.093856392879439e-27</v>
+        <v>9.225743968018941e-27</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>8.7535519372069e-27</v>
+        <v>8.862824384802875e-27</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>8.360668584482586e-27</v>
+        <v>8.455146248963616e-27</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>7.927944257098749e-27</v>
+        <v>8.01421900900168e-27</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>7.467757775513395e-27</v>
+        <v>7.550904324595915e-27</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>6.992487960184622e-27</v>
+        <v>7.076063855425245e-27</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>6.514513631569235e-27</v>
+        <v>6.600559261167304e-27</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>6.046213610125742e-27</v>
+        <v>6.135252201501425e-27</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>5.59980790409756e-27</v>
+        <v>5.690866715404046e-27</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>5.1819718852969e-27</v>
+        <v>5.273322068104921e-27</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.792522468888905e-27</v>
+        <v>4.88259424381788e-27</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>4.430851263319227e-27</v>
+        <v>4.518290671922491e-27</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.096349877034575e-27</v>
+        <v>4.180018781799382e-27</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.788409918481569e-27</v>
+        <v>3.867386002829095e-27</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.506422996106001e-27</v>
+        <v>3.579999764391332e-27</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.249780718354512e-27</v>
+        <v>3.317467495866655e-27</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.01787469367365e-27</v>
+        <v>3.079396626635536e-27</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.810096530509347e-27</v>
+        <v>2.865394586077813e-27</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.62583783730833e-27</v>
+        <v>2.675068803574142e-27</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.464490222516615e-27</v>
+        <v>2.508026708504445e-27</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.32544529458073e-27</v>
+        <v>2.363875730249175e-27</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.208029570891406e-27</v>
+        <v>2.242152576277404e-27</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.109803908662335e-27</v>
+        <v>2.140475551275299e-27</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.026400005444435e-27</v>
+        <v>2.054366913751039e-27</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.953351687420085e-27</v>
+        <v>1.979242584250242e-27</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.886192780771374e-27</v>
+        <v>1.910518483318229e-27</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.820457111680591e-27</v>
+        <v>1.843610531500523e-27</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.751678506330019e-27</v>
+        <v>1.773934649342644e-27</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.675390790901757e-27</v>
+        <v>1.696906757389922e-27</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.587130955536095e-27</v>
+        <v>1.607945979308404e-27</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.484951525665375e-27</v>
+        <v>1.505018110595892e-27</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.373940396331024e-27</v>
+        <v>1.393211398049547e-27</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.260405975339487e-27</v>
+        <v>1.278849708371683e-27</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.150656670497221e-27</v>
+        <v>1.168256908264624e-27</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.051000889610383e-27</v>
+        <v>1.06775686443039e-27</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>9.677470404855002e-28</v>
+        <v>9.83673443571378e-28</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>9.072035309287779e-28</v>
+        <v>9.223305123896579e-28</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>8.756787687466597e-28</v>
+        <v>8.900519375875402e-28</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>8.794811617454843e-28</v>
+        <v>8.931615858672313e-28</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>9.249191177316137e-28</v>
+        <v>9.379833239309581e-28</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.018301044511421e-27</v>
+        <v>1.030841018480961e-27</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.165935349891109e-27</v>
+        <v>1.178058536219309e-27</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.374130441677296e-27</v>
+        <v>1.385959743848487e-27</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.651498402596019e-27</v>
+        <v>1.663216329237528e-27</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.035477392634459e-27</v>
+        <v>2.047878463205282e-27</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.583122966864904e-27</v>
+        <v>2.597989647671674e-27</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.351866672162395e-27</v>
+        <v>3.371976581641234e-27</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.399140055404413e-27</v>
+        <v>4.428265964120948e-27</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.782374663466511e-27</v>
+        <v>5.825284494115866e-27</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>7.492633768473904e-27</v>
+        <v>7.553949737198975e-27</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>8.914270594037354e-27</v>
+        <v>8.988039974039283e-27</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>9.106485706441782e-27</v>
+        <v>9.170591512401266e-27</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>8.167816629365612e-27</v>
+        <v>8.200723044030303e-27</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>8.427737176289577e-27</v>
+        <v>8.446515930998696e-27</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>9.461193683896866e-27</v>
+        <v>9.480481417922915e-27</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.0497345347793e-26</v>
+        <v>1.052405147487851e-26</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.083437954416708e-26</v>
+        <v>1.086807649508842e-26</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.049814275677843e-26</v>
+        <v>1.053517971308896e-26</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>9.950703572995072e-27</v>
+        <v>9.986672596519653e-27</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>9.655690229437483e-27</v>
+        <v>9.685489710455132e-27</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>9.749966470630683e-27</v>
+        <v>9.770054299031793e-27</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>9.837187940407044e-27</v>
+        <v>9.849166182366576e-27</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>9.7283774471473e-27</v>
+        <v>9.735976365870688e-27</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>9.453672363915882e-27</v>
+        <v>9.459901711395627e-27</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>9.050072446395227e-27</v>
+        <v>9.057132245581099e-27</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>8.554577450268464e-27</v>
+        <v>8.563857995067503e-27</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>8.004187131219063e-27</v>
+        <v>8.01626898649558e-27</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>7.435901244928955e-27</v>
+        <v>7.450555246504535e-27</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>6.885300131252082e-27</v>
+        <v>6.901531119299184e-27</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>6.367605835531591e-27</v>
+        <v>6.384279910722546e-27</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.882806951003299e-27</v>
+        <v>5.899120829961412e-27</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>5.430524720424564e-27</v>
+        <v>5.446017054100866e-27</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>5.010380386552629e-27</v>
+        <v>5.02493176022588e-27</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>4.621995192143613e-27</v>
+        <v>4.6358281254203e-27</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>4.264990379955094e-27</v>
+        <v>4.278669326769428e-27</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.938987192743304e-27</v>
+        <v>3.953418541357227e-27</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>3.643609683112304e-27</v>
+        <v>3.660040694036958e-27</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>3.379278627170672e-27</v>
+        <v>3.398996284039107e-27</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>3.148303041666901e-27</v>
+        <v>3.171920325559212e-27</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.953265512148457e-27</v>
+        <v>2.980617996829182e-27</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.796748624162676e-27</v>
+        <v>2.826894476080805e-27</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.68094272655271e-27</v>
+        <v>2.712198870788861e-27</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.601445411104015e-27</v>
+        <v>2.631995412533076e-27</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.548381497594166e-27</v>
+        <v>2.576780174506218e-27</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.511710003051882e-27</v>
+        <v>2.536898714893993e-27</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.481389944506058e-27</v>
+        <v>2.502696591882295e-27</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.447380338985454e-27</v>
+        <v>2.464519363656869e-27</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.399640203518907e-27</v>
+        <v>2.412712588403548e-27</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.329232044401872e-27</v>
+        <v>2.338709226591789e-27</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.238460480626799e-27</v>
+        <v>2.245020460645076e-27</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.136194793101799e-27</v>
+        <v>2.140626433378512e-27</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.031386527401198e-27</v>
+        <v>2.034588352995522e-27</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.932987229099033e-27</v>
+        <v>1.935967427699234e-27</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.849907646430429e-27</v>
+        <v>1.853782290808879e-27</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.784792682704547e-27</v>
+        <v>1.790512727097712e-27</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.727328042056844e-27</v>
+        <v>1.735114688292523e-27</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.666140669452393e-27</v>
+        <v>1.675452517227672e-27</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.597443571313837e-27</v>
+        <v>1.607491428920452e-27</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.522999862665044e-27</v>
+        <v>1.533123392426624e-27</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.444699653116539e-27</v>
+        <v>1.454375989586032e-27</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.364433052278921e-27</v>
+        <v>1.373276802238595e-27</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.284090169762569e-27</v>
+        <v>1.291853412224009e-27</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.205561115178152e-27</v>
+        <v>1.21213340138226e-27</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.130724991873636e-27</v>
+        <v>1.136132585211871e-27</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.060716673312521e-27</v>
+        <v>1.06507115373877e-27</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>9.954664882295235e-28</v>
+        <v>9.988815679026355e-28</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>9.347949512297256e-28</v>
+        <v>9.373788908866209e-28</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>8.785225769183911e-28</v>
+        <v>8.803781858740614e-28</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>8.264698799007656e-28</v>
+        <v>8.276945160482743e-28</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>7.784573747819568e-28</v>
+        <v>7.791429445924366e-28</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>7.343055761672155e-28</v>
+        <v>7.345385346898708e-28</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>6.938349986617779e-28</v>
+        <v>6.936963495238841e-28</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>6.568661568707724e-28</v>
+        <v>6.564314522776754e-28</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>6.232195653994676e-28</v>
+        <v>6.225589061345844e-28</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>5.927157388530042e-28</v>
+        <v>5.918937742778226e-28</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>5.651751918366156e-28</v>
+        <v>5.642511198906944e-28</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>5.404184389555243e-28</v>
+        <v>5.394460061564932e-28</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>5.182659948148875e-28</v>
+        <v>5.172934962584468e-28</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>4.985383740199298e-28</v>
+        <v>4.976086533798509e-28</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>4.810560911758676e-28</v>
+        <v>4.802065407039928e-28</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>4.65639660887871e-28</v>
+        <v>4.649022214141133e-28</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>4.521095977611581e-28</v>
+        <v>4.515107586935018e-28</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>4.402864164009403e-28</v>
+        <v>4.398472157254402e-28</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>4.299906314123979e-28</v>
+        <v>4.297266556931799e-28</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>4.210427574007513e-28</v>
+        <v>4.20964141780012e-28</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>4.132633089711859e-28</v>
+        <v>4.133747371691929e-28</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>4.064728007289118e-28</v>
+        <v>4.067735050440036e-28</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>4.004917472791304e-28</v>
+        <v>4.009755085877163e-28</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.951406632270477e-28</v>
+        <v>3.95795810983608e-28</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.902400631778556e-28</v>
+        <v>3.910494754149415e-28</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.856315229776471e-28</v>
+        <v>3.865734106536063e-28</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.812739103227551e-28</v>
+        <v>3.823261854212442e-28</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.771666841515752e-28</v>
+        <v>3.783084713516725e-28</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.733093426265321e-28</v>
+        <v>3.745209807634913e-28</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.69701383910041e-28</v>
+        <v>3.709644259752913e-28</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.663423061645271e-28</v>
+        <v>3.676395193056729e-28</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.632316075524153e-28</v>
+        <v>3.645469730732361e-28</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.603687862361216e-28</v>
+        <v>3.616874995965726e-28</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.577533403780708e-28</v>
+        <v>3.590618111942825e-28</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.553847681406868e-28</v>
+        <v>3.566706201849648e-28</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.532625676863871e-28</v>
+        <v>3.545146388872127e-28</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.513862371775975e-28</v>
+        <v>3.52594579619627e-28</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.497552747767364e-28</v>
+        <v>3.509111547008017e-28</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.483691786462274e-28</v>
+        <v>3.494650764493356e-28</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.472274469484934e-28</v>
+        <v>3.482570571838269e-28</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.463295778459541e-28</v>
+        <v>3.472878092228707e-28</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.456750695010325e-28</v>
+        <v>3.465580448850654e-28</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.452634200761508e-28</v>
+        <v>3.460684764890084e-28</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.450941277337298e-28</v>
+        <v>3.458198163532961e-28</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.451666906361923e-28</v>
+        <v>3.458127767965263e-28</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.454806069459594e-28</v>
+        <v>3.460480701372958e-28</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>3.460353748254537e-28</v>
+        <v>3.465264086942022e-28</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>3.468304924370959e-28</v>
+        <v>3.472485047858418e-28</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>3.478654579433094e-28</v>
+        <v>3.482150707308131e-28</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>3.491397695065154e-28</v>
+        <v>3.494268188477129e-28</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>3.506529252891343e-28</v>
+        <v>3.508844614551368e-28</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.524044234535907e-28</v>
+        <v>3.525887108716846e-28</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>3.543937621623051e-28</v>
+        <v>3.545402794159525e-28</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>3.566204395776973e-28</v>
+        <v>3.567398794065354e-28</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>3.590839538621931e-28</v>
+        <v>3.591882231620345e-28</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>3.617838031782126e-28</v>
+        <v>3.61886023001045e-28</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>3.647194856881747e-28</v>
+        <v>3.648339912421617e-28</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>3.678904995545067e-28</v>
+        <v>3.680328402039868e-28</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>3.712963429396246e-28</v>
+        <v>3.714832822051116e-28</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>3.749365140059566e-28</v>
+        <v>3.751860295641399e-28</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>3.788312973797707e-28</v>
+        <v>3.791617932706978e-28</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.830991948849414e-28</v>
+        <v>3.835257791471485e-28</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.878876894143856e-28</v>
+        <v>3.884210757221267e-28</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.933442680616152e-28</v>
+        <v>3.939907755656632e-28</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>3.996164179201228e-28</v>
+        <v>4.003779712477691e-28</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>4.06851626083423e-28</v>
+        <v>4.077257553384781e-28</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>4.151973796450135e-28</v>
+        <v>4.161772204078062e-28</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>4.248011656983883e-28</v>
+        <v>4.258754590257662e-28</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>4.358104713370675e-28</v>
+        <v>4.369635637623971e-28</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.483727836545463e-28</v>
+        <v>4.49584627187713e-28</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.626355897443141e-28</v>
+        <v>4.638817418717216e-28</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>4.787355541375693e-28</v>
+        <v>4.799873603843387e-28</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>4.966160241674337e-28</v>
+        <v>4.978438791008124e-28</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>5.160536481079792e-28</v>
+        <v>5.17229807328232e-28</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>5.368196119501631e-28</v>
+        <v>5.37918284232007e-28</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>5.586851016848715e-28</v>
+        <v>5.596824489774757e-28</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>5.814213033030668e-28</v>
+        <v>5.822954407300526e-28</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>6.047994027956524e-28</v>
+        <v>6.055303986550933e-28</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>6.285905861535297e-28</v>
+        <v>6.291604619179517e-28</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>6.525660393676645e-28</v>
+        <v>6.529587696840452e-28</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>6.764969484289582e-28</v>
+        <v>6.766984611187278e-28</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>7.001544993283123e-28</v>
+        <v>7.001526753873534e-28</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>7.233098780566929e-28</v>
+        <v>7.230945516553397e-28</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>7.457342706050004e-28</v>
+        <v>7.452972290880397e-28</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>7.671988629641399e-28</v>
+        <v>7.665338468508108e-28</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>7.874748411250719e-28</v>
+        <v>7.865775441090652e-28</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>8.065286917968829e-28</v>
+        <v>8.053974277744276e-28</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>8.252279465035548e-28</v>
+        <v>8.238667269927076e-28</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>8.446998167104559e-28</v>
+        <v>8.431192377593321e-28</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>8.660715381219934e-28</v>
+        <v>8.642887803915509e-28</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>8.904703464426314e-28</v>
+        <v>8.885091752066721e-28</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>9.190234773767793e-28</v>
+        <v>9.16914242521948e-28</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>9.528581666288301e-28</v>
+        <v>9.506378026546163e-28</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>9.931016499032721e-28</v>
+        <v>9.908136759220069e-28</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.040880075311377e-27</v>
+        <v>1.038574571186999e-27</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.096982681928742e-27</v>
+        <v>1.094708896664639e-27</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.161386532954587e-27</v>
+        <v>1.159175065969713e-27</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.233948768485936e-27</v>
+        <v>1.231808938563207e-27</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.314526528619784e-27</v>
+        <v>1.312446373906075e-27</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.402976953453349e-27</v>
+        <v>1.400923231459497e-27</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.499157183083631e-27</v>
+        <v>1.497075370684434e-27</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.602924357607608e-27</v>
+        <v>1.600738651041822e-27</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.714135617122536e-27</v>
+        <v>1.711748931992882e-27</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.832552434939301e-27</v>
+        <v>1.829850070109455e-27</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.956768906734311e-27</v>
+        <v>1.953663253172907e-27</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.084598887693578e-27</v>
+        <v>2.081059310535767e-27</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.213841955712805e-27</v>
+        <v>2.209895341059447e-27</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.342297688688043e-27</v>
+        <v>2.338028443605707e-27</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.467765664514995e-27</v>
+        <v>2.463315717035958e-27</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.588045461089376e-27</v>
+        <v>2.583614260211622e-27</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.700936656307221e-27</v>
+        <v>2.696781171994445e-27</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.804238828064239e-27</v>
+        <v>2.800673551245843e-27</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.895690332139289e-27</v>
+        <v>2.893079234785239e-27</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.972157954531134e-27</v>
+        <v>2.970800031737945e-27</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>3.029859597575843e-27</v>
+        <v>3.029903653654718e-27</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>3.064997697606657e-27</v>
+        <v>3.06644031502816e-27</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>3.073774690956652e-27</v>
+        <v>3.0764602303507e-27</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.052393013958992e-27</v>
+        <v>3.056013614114863e-27</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.997057346609115e-27</v>
+        <v>3.001152969737658e-27</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.907612720229244e-27</v>
+        <v>2.91164459008959e-27</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.794947298063569e-27</v>
+        <v>2.798520677065831e-27</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.67203540015861e-27</v>
+        <v>2.674941674161159e-27</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.551851345601281e-27</v>
+        <v>2.554068023897914e-27</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.444765949295963e-27</v>
+        <v>2.446421847108332e-27</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.350959211456013e-27</v>
+        <v>2.352198164856793e-27</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.268118038249194e-27</v>
+        <v>2.269065563205152e-27</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.193929335842944e-27</v>
+        <v>2.194692628214944e-27</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.126080010404926e-27</v>
+        <v>2.126747945947927e-27</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.06225696810273e-27</v>
+        <v>2.062900102465786e-27</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.000147115103995e-27</v>
+        <v>2.000817683830253e-27</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.937437357576197e-27</v>
+        <v>1.938169276102902e-27</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.871814601687041e-27</v>
+        <v>1.872623465345531e-27</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.801356633711703e-27</v>
+        <v>1.802241544020537e-27</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.72639196921458e-27</v>
+        <v>1.727346049869856e-27</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.648053072024731e-27</v>
+        <v>1.649067225154647e-27</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.567473409329511e-27</v>
+        <v>1.568536320182318e-27</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.485786448316487e-27</v>
+        <v>1.486884585260491e-27</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.404125656173231e-27</v>
+        <v>1.405243270696789e-27</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.323624500087094e-27</v>
+        <v>1.324743626798616e-27</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.245416447245646e-27</v>
+        <v>1.246516903873596e-27</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.170629467961042e-27</v>
+        <v>1.171688883179318e-27</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.099858561006349e-27</v>
+        <v>1.100855072355188e-27</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.03272802170505e-27</v>
+        <v>1.03364518932647e-27</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>9.687591100581875e-28</v>
+        <v>9.69586438264454e-28</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>9.074730860669858e-28</v>
+        <v>9.082060233406116e-28</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>8.483912097326594e-28</v>
+        <v>8.490311487264063e-28</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>7.910347410562649e-28</v>
+        <v>7.915890185931416e-28</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>7.349249400390185e-28</v>
+        <v>7.354068371122828e-28</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>6.795830666821322e-28</v>
+        <v>6.800118084552898e-28</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>6.245528080623066e-28</v>
+        <v>6.249532709838805e-28</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>5.699096119948899e-28</v>
+        <v>5.70305379296652e-28</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>5.16269695146048e-28</v>
+        <v>5.166759947002742e-28</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>4.642735030392744e-28</v>
+        <v>4.646968909432381e-28</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>4.145614811982515e-28</v>
+        <v>4.149998417742233e-28</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>3.677740751464795e-28</v>
+        <v>3.682166209417273e-28</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>3.245517304075949e-28</v>
+        <v>3.249790021943839e-28</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.855348925052209e-28</v>
+        <v>2.859187592808136e-28</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.513640069628773e-28</v>
+        <v>2.516676659495335e-28</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.226261820400877e-28</v>
+        <v>2.228094876764223e-28</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.996781511406902e-28</v>
+        <v>1.997206321155511e-28</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.82814463233726e-28</v>
+        <v>1.827215354092015e-28</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.723304739196152e-28</v>
+        <v>1.721333050045243e-28</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.685736668305588e-28</v>
+        <v>1.683204352193105e-28</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.717757796913537e-28</v>
+        <v>1.715163388398904e-28</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.809044099271689e-28</v>
+        <v>1.806799595074299e-28</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.944261936689269e-28</v>
+        <v>1.942656990981399e-28</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.108065557205804e-28</v>
+        <v>2.107267395036653e-28</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.285065150861892e-28</v>
+        <v>2.285119903996313e-28</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.458853004596713e-28</v>
+        <v>2.459716574341935e-28</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.612000957356588e-28</v>
+        <v>2.613569954550084e-28</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.727036281108879e-28</v>
+        <v>2.729149377389353e-28</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.786486247821413e-28</v>
+        <v>2.7889241756288e-28</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.772891953166415e-28</v>
+        <v>2.775377515334265e-28</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.683161911599512e-28</v>
+        <v>2.685369951023942e-28</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.55574158701813e-28</v>
+        <v>2.557327809485484e-28</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.436538905742836e-28</v>
+        <v>2.43714505819316e-28</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.369074238559804e-28</v>
+        <v>2.368340155738319e-28</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.352072568703532e-28</v>
+        <v>2.349862192791893e-28</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.344453786727751e-28</v>
+        <v>2.341056007940846e-28</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.303752653214926e-28</v>
+        <v>2.299888298613401e-28</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.197098057466549e-28</v>
+        <v>2.193798468988038e-28</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.032232591805655e-28</v>
+        <v>2.030325624845367e-28</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.82764379485552e-28</v>
+        <v>1.827617831709015e-28</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.601819273636548e-28</v>
+        <v>1.603823222634114e-28</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.373246635169218e-28</v>
+        <v>1.377089930675871e-28</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.160412211915511e-28</v>
+        <v>1.165564842547381e-28</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>9.772323563601694e-29</v>
+        <v>9.829260359852889e-29</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>8.227852850840656e-29</v>
+        <v>8.283419420206994e-29</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>6.931429711685994e-29</v>
+        <v>6.980413009195907e-29</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>5.843773876955986e-29</v>
+        <v>5.882528529483682e-29</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>4.925605077468155e-29</v>
+        <v>4.952053383733628e-29</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>4.137643044037628e-29</v>
+        <v>4.151274974606638e-29</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.440608242827734e-29</v>
+        <v>3.442481443470491e-29</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.829507335885549e-29</v>
+        <v>2.822402001985589e-29</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.378425811680827e-29</v>
+        <v>2.366546796700595e-29</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.072077021986049e-29</v>
+        <v>2.058995470249507e-29</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.876949499479901e-29</v>
+        <v>1.865265532594742e-29</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.759531776840612e-29</v>
+        <v>1.750874493698263e-29</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.686312386747014e-29</v>
+        <v>1.681339863522631e-29</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.628381625150541e-29</v>
+        <v>1.626917442866929e-29</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.578647692993988e-29</v>
+        <v>1.580328242748155e-29</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.53647830990024e-29</v>
+        <v>1.540944437304258e-29</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.501242187091195e-29</v>
+        <v>1.508139221691498e-29</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.472308035788868e-29</v>
+        <v>1.481285791066245e-29</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.449044567215252e-29</v>
+        <v>1.459757340584845e-29</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.430820492592277e-29</v>
+        <v>1.442927065403591e-29</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.41700452314194e-29</v>
+        <v>1.430168160678837e-29</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.406965370086225e-29</v>
+        <v>1.420853821566919e-29</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.400071744647086e-29</v>
+        <v>1.414357243224151e-29</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.39569235804651e-29</v>
+        <v>1.410051620806878e-29</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.393196514957673e-29</v>
+        <v>1.40731079427332e-29</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.392067558538826e-29</v>
+        <v>1.40563250969293e-29</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.392037714727288e-29</v>
+        <v>1.404784931470579e-29</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.392872040920501e-29</v>
+        <v>1.404571896341814e-29</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.394335594515909e-29</v>
+        <v>1.404797241042187e-29</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.396193432910953e-29</v>
+        <v>1.40526480230725e-29</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.398210613503079e-29</v>
+        <v>1.405778416872554e-29</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.400152193689729e-29</v>
+        <v>1.40614192147365e-29</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.401783230868344e-29</v>
+        <v>1.406159152846088e-29</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.402868782436369e-29</v>
+        <v>1.405633947725419e-29</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.403173905791249e-29</v>
+        <v>1.404370142847197e-29</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.402463658330424e-29</v>
+        <v>1.402171574946969e-29</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.400503097451338e-29</v>
+        <v>1.398842080760287e-29</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.397057280551437e-29</v>
+        <v>1.394185497022707e-29</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.391891265028158e-29</v>
+        <v>1.388005660469771e-29</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.384770108278947e-29</v>
+        <v>1.380106407837034e-29</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.375458867701255e-29</v>
+        <v>1.370291575860057e-29</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.363722600692511e-29</v>
+        <v>1.358365001274372e-29</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.349326364650161e-29</v>
+        <v>1.344130520815539e-29</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.332285470225488e-29</v>
+        <v>1.3276249014269e-29</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.313769500888081e-29</v>
+        <v>1.30995928172647e-29</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.295280613796771e-29</v>
+        <v>1.292554352585244e-29</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.278320996990791e-29</v>
+        <v>1.276830833617015e-29</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.264392838509426e-29</v>
+        <v>1.264209444435623e-29</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.254998326391943e-29</v>
+        <v>1.256110904654893e-29</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.251639648677609e-29</v>
+        <v>1.253955933888648e-29</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.255818993405685e-29</v>
+        <v>1.259165251750708e-29</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.269038548615428e-29</v>
+        <v>1.273159577854885e-29</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.292800502346128e-29</v>
+        <v>1.297359631815029e-29</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.328607042637045e-29</v>
+        <v>1.333186133244955e-29</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.377960357527396e-29</v>
+        <v>1.382059801758437e-29</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.442362635056536e-29</v>
+        <v>1.445401356969388e-29</v>
       </c>
     </row>
   </sheetData>
